--- a/inputs_format.xlsx
+++ b/inputs_format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8cfe4cfcce9df8/Desktop/LLA/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8cfe4cfcce9df8/Desktop/LLA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{07F67C35-A684-416A-A459-098365CC72FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEFB458-F49E-44D8-9271-06B8A54C97DE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{07F67C35-A684-416A-A459-098365CC72FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EFFB97-3277-4AB5-8CCC-B82B36D4A410}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4470" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{60FA1F9A-1706-40E1-A997-63C84692A6BE}"/>
+    <workbookView xWindow="28680" yWindow="-4470" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{60FA1F9A-1706-40E1-A997-63C84692A6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparisson - Connectivity" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="158">
   <si>
     <t>BB HFC - Base</t>
   </si>
@@ -520,7 +520,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -643,7 +643,7 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2692,8 +2692,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4205,15 +4205,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CE87E2-639C-4C10-A25B-0CF418DE89C2}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5119,254 +5122,300 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="4">
-        <v>16</v>
-      </c>
-      <c r="D41" s="4">
-        <v>16</v>
-      </c>
-      <c r="E41" s="4">
-        <v>16</v>
-      </c>
-      <c r="F41" s="4">
-        <v>16</v>
-      </c>
-      <c r="G41" s="4">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.5</v>
+        <v>151</v>
+      </c>
+      <c r="C42" s="4">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4">
+        <v>16</v>
+      </c>
+      <c r="E42" s="4">
+        <v>16</v>
+      </c>
+      <c r="F42" s="4">
+        <v>16</v>
+      </c>
+      <c r="G42" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="4">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4">
-        <v>9</v>
-      </c>
-      <c r="F46" s="4">
-        <v>9</v>
-      </c>
-      <c r="G46" s="4">
-        <v>9</v>
+        <v>93</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.8</v>
+        <v>151</v>
+      </c>
+      <c r="C48" s="4">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.76</v>
+        <v>154</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8</v>
+      </c>
+      <c r="D49" s="4">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="D50" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1.42</v>
-      </c>
-      <c r="G50" s="11">
-        <v>1.42</v>
+        <v>93</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C53" s="11">
         <v>0.95</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D53" s="11">
         <v>0.95</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E53" s="11">
         <v>0.95</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F53" s="11">
         <v>0.95</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G53" s="11">
         <v>0.95</v>
       </c>
     </row>
@@ -5377,10 +5426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175F8B7A-17DF-472F-8A32-E51DF20DE724}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,231 +6295,300 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="4">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4">
-        <v>16</v>
-      </c>
-      <c r="E39" s="4">
-        <v>16</v>
-      </c>
-      <c r="F39" s="4">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.5</v>
+        <v>151</v>
+      </c>
+      <c r="C40" s="4">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4">
+        <v>16</v>
+      </c>
+      <c r="F40" s="4">
+        <v>16</v>
+      </c>
+      <c r="G40" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C43" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="4">
-        <v>9</v>
-      </c>
-      <c r="D44" s="4">
-        <v>9</v>
-      </c>
-      <c r="E44" s="4">
-        <v>9</v>
-      </c>
-      <c r="F44" s="4">
-        <v>9</v>
-      </c>
-      <c r="G44" s="4">
-        <v>9</v>
+        <v>93</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.8</v>
+        <v>151</v>
+      </c>
+      <c r="C46" s="4">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4">
+        <v>9</v>
+      </c>
+      <c r="G46" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.76</v>
+        <v>154</v>
+      </c>
+      <c r="C47" s="4">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4">
+        <v>8</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C51" s="11">
         <v>0.95</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D51" s="11">
         <v>0.95</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E51" s="11">
         <v>0.95</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F51" s="11">
         <v>0.95</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G51" s="11">
         <v>0.95</v>
       </c>
     </row>
